--- a/ChargePersonnel.xlsx
+++ b/ChargePersonnel.xlsx
@@ -19,7 +19,7 @@
     <t xml:space="preserve">Date </t>
   </si>
   <si>
-    <t>ChargePersonnel</t>
+    <t>RH</t>
   </si>
 </sst>
 </file>

--- a/ChargePersonnel.xlsx
+++ b/ChargePersonnel.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +427,14 @@
         <v>1809500</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B6">
+        <v>2143000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ChargePersonnel.xlsx
+++ b/ChargePersonnel.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,15 @@
         <v>45169</v>
       </c>
       <c r="B6">
-        <v>2143000</v>
+        <v>2026000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B7">
+        <v>1887500</v>
       </c>
     </row>
   </sheetData>

--- a/ChargePersonnel.xlsx
+++ b/ChargePersonnel.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,50 +397,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45046</v>
+        <v>45107</v>
       </c>
       <c r="B2">
-        <v>549500</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45077</v>
+        <v>45138</v>
       </c>
       <c r="B3">
-        <v>1399000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="B4">
-        <v>1736000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45138</v>
+        <v>45199</v>
       </c>
       <c r="B5">
-        <v>1809500</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45169</v>
+        <v>45230</v>
       </c>
       <c r="B6">
-        <v>2026000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>45199</v>
-      </c>
-      <c r="B7">
-        <v>1887500</v>
+        <v>28000</v>
       </c>
     </row>
   </sheetData>

--- a/ChargePersonnel.xlsx
+++ b/ChargePersonnel.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,42 +397,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45107</v>
+        <v>45046</v>
       </c>
       <c r="B2">
-        <v>52000</v>
+        <v>549500</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45138</v>
+        <v>45077</v>
       </c>
       <c r="B3">
-        <v>60000</v>
+        <v>1399000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45169</v>
+        <v>45107</v>
       </c>
       <c r="B4">
-        <v>60000</v>
+        <v>1736000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="B5">
-        <v>60000</v>
+        <v>1809500</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B6">
+        <v>2026000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B7">
+        <v>1887500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>45230</v>
       </c>
-      <c r="B6">
-        <v>28000</v>
+      <c r="B8">
+        <v>1953000</v>
       </c>
     </row>
   </sheetData>

--- a/ChargePersonnel.xlsx
+++ b/ChargePersonnel.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,54 @@
         <v>1953000</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B9">
+        <v>2107000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B10">
+        <v>2569000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B11">
+        <v>2230500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B12">
+        <v>2113000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B13">
+        <v>2040500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B14">
+        <v>1834000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
